--- a/openai_api.xlsx
+++ b/openai_api.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reza/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reza/Desktop/OpenAI-API-Sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8F225A-3EB4-4B46-90B2-0AE9653F69F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF9959D-BE95-D74F-90D0-4FDA3F4424B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="0" windowWidth="28240" windowHeight="16300" xr2:uid="{67FD31E5-A99B-2141-B049-787CE3700865}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{67FD31E5-A99B-2141-B049-787CE3700865}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InstructGPT</t>
-  </si>
-  <si>
     <t>davinci-instruct-beta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,88 +146,6 @@
   </si>
   <si>
     <t>Other Notes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SFT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Supervised fine-tuning on human demonstrations;
-2. Currently deprecated</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FeedME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Using human feed back</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PPO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Proximal Policy Optimization; reinforcement learning</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -449,12 +364,98 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>InstructGPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Supervised fine-tuning on human demonstrations;
+2. Currently deprecated</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FeedME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Using human feed back</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PPO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Proximal Policy Optimization; reinforcement learning</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,7 +481,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
@@ -488,48 +525,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="16"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color rgb="FF374151"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
-      <sz val="16"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times Roman"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,6 +601,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2CEFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,81 +638,111 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF2CEFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -937,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863BC0F5-2438-DE40-AAD1-CCDF4F247BF4}">
   <dimension ref="A3:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -952,563 +1068,563 @@
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="53.1640625" customWidth="1"/>
+    <col min="10" max="10" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="1:10" ht="44">
+      <c r="A6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21">
+      <c r="A7" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2049</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2049</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2049</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2049</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="36">
+      <c r="A11" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="22">
+      <c r="A12" s="27"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2049</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="22">
+      <c r="A13" s="27"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2049</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="22">
+      <c r="A14" s="27"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2049</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="38" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="9">
+        <v>4097</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="49" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4097</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" ht="44">
-      <c r="A6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="18" spans="1:10" ht="22">
+      <c r="A18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="9">
+        <v>4096</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="22">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="9">
+        <v>4096</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="22">
+      <c r="A20" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2049</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="2" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="9">
+        <v>8192</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="22">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2049</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="D21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="9">
+        <v>8192</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="72">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="9">
+        <v>32768</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2049</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2049</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="s">
+    <row r="23" spans="1:10" ht="54">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="9">
+        <v>32768</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="17" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="34">
-      <c r="A11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2049</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2049</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2049</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="38" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4097</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="49" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="4">
-        <v>4097</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20">
-      <c r="A18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="4">
-        <v>4096</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="4">
-        <v>4096</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20">
-      <c r="A20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="4">
-        <v>8192</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="4">
-        <v>8192</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="51">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="4">
-        <v>32768</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="51">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="4">
-        <v>32768</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1523,6 +1639,11 @@
     <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A20:B23" r:id="rId1" display="GPT-4" xr:uid="{19424712-485B-6540-8010-E639FF90D32C}"/>
+    <hyperlink ref="A11:A17" r:id="rId2" display="InstructGPT" xr:uid="{941D5FD8-991A-8146-9A00-46DC66121084}"/>
+    <hyperlink ref="A7:B10" r:id="rId3" display="GPT-3" xr:uid="{31BB80FA-2BC6-AB4C-A5F5-BFCA350F85C4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/openai_api.xlsx
+++ b/openai_api.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reza/Desktop/OpenAI-API-Sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF9959D-BE95-D74F-90D0-4FDA3F4424B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E29AC5A-FE66-D74B-BB64-791C541BE6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{67FD31E5-A99B-2141-B049-787CE3700865}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
   <si>
     <t>GPT-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,11 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Max Request 
-(tokens)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Training Data
  (up to)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,19 +140,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gpt-3.5-turbo-0301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gpt-3.5-turbo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Stable version; will be continually updated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Released on 03/01/2023; will be deprecated 06/01/2023</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,7 +156,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -188,7 +167,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -261,7 +240,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -272,7 +251,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -308,16 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Same capabilities as the base gpt-4 mode; 4x the context length
-2. Released on 03/14/2023; will be deprecated 06/14/2023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Same capabilities as the base gpt-4 mode; 4x the context length
-2. Stable version; will be continually updated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OpenAI API Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +310,168 @@
   <si>
     <t>0.1200</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstructGPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Supervised fine-tuning on human demonstrations;
+2. Currently deprecated</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FeedME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Using human feed back</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PPO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Proximal Policy Optimization; reinforcement learning</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpt-3.5-turbo-0301</t>
+  </si>
+  <si>
+    <t>gpt-3.5-turbo-0613</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>gpt-3.5-turbo-16k</t>
+  </si>
+  <si>
+    <t>Released on 03/01/2023; will be deprecated 09/13/2023</t>
+  </si>
+  <si>
+    <t>Released on 06/13/2023; 4 times longer context window</t>
+  </si>
+  <si>
+    <t>gpt-4-0613</t>
+  </si>
+  <si>
+    <t>gpt-4-32k-0613</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Released on 06/13/2023; 25% cost reduction for input tokens; 
+(1). more reliable steerability via the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>system message.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(2). add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function calling.</t>
+    </r>
+  </si>
+  <si>
+    <t>(1). Same capabilities as the base gpt-4 mode; 4x the context length
+(2). Released on 03/14/2023; will be deprecated 06/14/2023</t>
+  </si>
+  <si>
+    <t>(1). Same capabilities as the base gpt-4 mode; 4x the context length
+(2). Stable version; will be continually updated</t>
+  </si>
+  <si>
+    <t>Max Request 
+(I/O tokens)</t>
   </si>
   <si>
     <r>
@@ -352,7 +483,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Times Roman"/>
       </rPr>
-      <t>04/07/2023</t>
+      <t>06/14/2023</t>
     </r>
     <r>
       <rPr>
@@ -362,111 +493,59 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InstructGPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
+  </si>
+  <si>
+    <t>I: 0.0015
+O: 0.0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I: 0.0030 
+O: 0.0040 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Released on 06/13/2023; add </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="13"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function calling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SFT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Supervised fine-tuning on human demonstrations;
-2. Currently deprecated</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FeedME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Using human feed back</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PPO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Proximal Policy Optimization; reinforcement learning</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -475,7 +554,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -519,7 +598,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -528,7 +607,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -538,7 +617,7 @@
       <u/>
       <sz val="16"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -547,7 +626,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -562,7 +641,7 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -577,7 +656,7 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -585,9 +664,23 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -646,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,16 +818,19 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -755,7 +851,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1051,29 +1147,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863BC0F5-2438-DE40-AAD1-CCDF4F247BF4}">
-  <dimension ref="A3:J23"/>
+  <dimension ref="A3:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="55.33203125" customWidth="1"/>
+    <col min="10" max="10" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10">
       <c r="A3" s="21" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -1109,34 +1205,34 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="44">
+    <row r="6" spans="1:10" ht="66">
       <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21">
@@ -1145,35 +1241,35 @@
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="9">
         <v>2049</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>1</v>
@@ -1185,452 +1281,564 @@
         <v>2049</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="9">
         <v>2049</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="9">
         <v>2049</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="11" spans="1:10" ht="36">
-      <c r="A11" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>19</v>
+      <c r="A11" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="22">
-      <c r="A12" s="27"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="9">
         <v>2049</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="22">
-      <c r="A13" s="27"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F13" s="9">
         <v>2049</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="22">
-      <c r="A14" s="27"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F14" s="9">
         <v>2049</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="16" spans="1:10" ht="38" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F16" s="9">
         <v>4097</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="49" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F17" s="9">
         <v>4097</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="22">
       <c r="A18" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F18" s="9">
         <v>4096</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="22">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="54">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="6" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="F19" s="9">
         <v>4096</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="22">
-      <c r="A20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="36">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="F20" s="9">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="22">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="36">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="F21" s="9">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="72">
-      <c r="A22" s="20"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="22">
+      <c r="A22" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="B22" s="20"/>
       <c r="C22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="9">
+        <v>8192</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="9">
-        <v>32768</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="54">
+      <c r="J22" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="22">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="5" t="s">
-        <v>46</v>
+      <c r="C23" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F23" s="9">
+        <v>8192</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="22">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="9">
+        <v>8192</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="72">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="9">
         <v>32768</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>57</v>
+      <c r="G25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="22">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="9">
+        <v>32768</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="54">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="9">
+        <v>32768</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B23"/>
+    <mergeCell ref="A18:B21"/>
+    <mergeCell ref="A22:B27"/>
     <mergeCell ref="A3:J5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B10"/>
@@ -1640,7 +1848,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A20:B23" r:id="rId1" display="GPT-4" xr:uid="{19424712-485B-6540-8010-E639FF90D32C}"/>
+    <hyperlink ref="A22:B27" r:id="rId1" display="GPT-4" xr:uid="{19424712-485B-6540-8010-E639FF90D32C}"/>
     <hyperlink ref="A11:A17" r:id="rId2" display="InstructGPT" xr:uid="{941D5FD8-991A-8146-9A00-46DC66121084}"/>
     <hyperlink ref="A7:B10" r:id="rId3" display="GPT-3" xr:uid="{31BB80FA-2BC6-AB4C-A5F5-BFCA350F85C4}"/>
   </hyperlinks>

--- a/openai_api.xlsx
+++ b/openai_api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reza/Desktop/OpenAI-API-Sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E29AC5A-FE66-D74B-BB64-791C541BE6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D084626B-C7A5-2B41-8BB1-29F509A783D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{67FD31E5-A99B-2141-B049-787CE3700865}"/>
   </bookViews>
@@ -304,14 +304,6 @@
     <t>0.0200</t>
   </si>
   <si>
-    <t>0.0600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InstructGPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,6 +520,14 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>I: 0.0300
+O: 0.0600</t>
+  </si>
+  <si>
+    <t>I: 0.0600
+O: 0.1200</t>
   </si>
 </sst>
 </file>
@@ -797,6 +797,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -823,9 +826,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863BC0F5-2438-DE40-AAD1-CCDF4F247BF4}">
   <dimension ref="A3:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1168,48 +1168,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10">
-      <c r="A3" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="A3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:10" ht="66">
-      <c r="A6" s="23" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" ht="44">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>7</v>
@@ -1236,10 +1236,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1266,8 +1266,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1294,8 +1294,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1322,8 +1322,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
@@ -1350,10 +1350,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="36">
-      <c r="A11" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1378,12 +1378,12 @@
         <v>46</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="22">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1410,8 +1410,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="22">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
@@ -1434,12 +1434,12 @@
         <v>46</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="22">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
@@ -1462,12 +1462,12 @@
         <v>46</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
@@ -1490,12 +1490,12 @@
         <v>46</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="38" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1520,12 +1520,12 @@
         <v>46</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="49" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1548,16 +1548,16 @@
         <v>46</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="22">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>17</v>
@@ -1578,20 +1578,20 @@
         <v>47</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="54">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="F19" s="9">
         <v>4096</v>
@@ -1606,20 +1606,20 @@
         <v>47</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>77</v>
+      <c r="E20" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="F20" s="9">
         <v>4096</v>
@@ -1638,16 +1638,16 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="36">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="F21" s="9">
         <v>16384</v>
@@ -1662,22 +1662,22 @@
         <v>47</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="22">
-      <c r="A22" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="36">
+      <c r="A22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>58</v>
+      <c r="E22" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="F22" s="9">
         <v>8192</v>
@@ -1695,17 +1695,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="22">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+    <row r="23" spans="1:10" ht="36">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="F23" s="9">
         <v>8192</v>
@@ -1720,20 +1720,20 @@
         <v>47</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="22">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="36">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>58</v>
+      <c r="E24" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="F24" s="9">
         <v>8192</v>
@@ -1751,17 +1751,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="72">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
+    <row r="25" spans="1:10" ht="36">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>59</v>
+      <c r="E25" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="F25" s="9">
         <v>32768</v>
@@ -1776,20 +1776,20 @@
         <v>47</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="22">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="36">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="F26" s="9">
         <v>32768</v>
@@ -1804,20 +1804,20 @@
         <v>47</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="54">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="36">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>59</v>
+      <c r="E27" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="F27" s="9">
         <v>32768</v>
@@ -1832,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/openai_api.xlsx
+++ b/openai_api.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reza/Desktop/OpenAI-API-Sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D084626B-C7A5-2B41-8BB1-29F509A783D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3A65D8-7ADD-874A-A4B0-E5A557DE8467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{67FD31E5-A99B-2141-B049-787CE3700865}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
   <si>
     <t>GPT-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,21 +268,6 @@
     <t>✅</t>
   </si>
   <si>
-    <t>Fastest</t>
-  </si>
-  <si>
-    <t>Fast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Most Powerful</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Powerful</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unknow; either SFT or FeedME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,6 +449,49 @@
   <si>
     <t>Max Request 
 (I/O tokens)</t>
+  </si>
+  <si>
+    <t>I: 0.0015
+O: 0.0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I: 0.0030 
+O: 0.0040 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Released on 06/13/2023; add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function calling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>I: 0.0300
+O: 0.0600</t>
+  </si>
+  <si>
+    <t>I: 0.0600
+O: 0.1200</t>
   </si>
   <si>
     <r>
@@ -475,7 +503,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Times Roman"/>
       </rPr>
-      <t>06/14/2023</t>
+      <t>08/22/2023</t>
     </r>
     <r>
       <rPr>
@@ -487,54 +515,235 @@
     </r>
   </si>
   <si>
-    <t>I: 0.0015
-O: 0.0020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I: 0.0030 
-O: 0.0040 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Released on 06/13/2023; add </t>
+    <r>
+      <t xml:space="preserve">(1). Stable version; will be continually updated.
+(2). 08/22/2023, fine-tuning is allowed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">The price for fine-tuning:
+- Training: </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="13"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>$0.008 / 1K Tokens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+- Usage input: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>$0.012 / 1K Tokens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+- Usage output: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>$0.016 / 1K Tokens</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> babbage-002</t>
+  </si>
+  <si>
+    <t>davinci-002</t>
+  </si>
+  <si>
+    <t>I: 0.0004
+O:  0.0004</t>
+  </si>
+  <si>
+    <t>I: 0.002
+O: 0.002</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fastest; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will deprecate on 01/04/2024.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fast; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will deprecate on 01/04/2024.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Powerful; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will deprecate on 01/04/2024.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Most Powerful; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will deprecate on 01/04/2024.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(1). Replacement of babbage, released on 08/22/2023.
+(2). Fine-tuning price:
+- Training:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>function calling</t>
+      <t xml:space="preserve"> $0.0004 / 1K tokens</t>
     </r>
     <r>
       <rPr>
         <sz val="13"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="4"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>I: 0.0300
-O: 0.0600</t>
-  </si>
-  <si>
-    <t>I: 0.0600
-O: 0.1200</t>
+      <t xml:space="preserve">
+- Input/Output: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$0.0016 / 1K tokens</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1). Replacement of davinci,  released on 08/22/2023.
+(2). Fine-tuning price:
+- Training: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$0.006 / 1K tokens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Input/Output:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $0.012 / 1K tokens</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -679,6 +888,46 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -739,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,9 +1022,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -826,6 +1072,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -836,6 +1100,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF000000"/>
       <color rgb="FFF2CEFF"/>
     </mruColors>
   </colors>
@@ -1147,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863BC0F5-2438-DE40-AAD1-CCDF4F247BF4}">
-  <dimension ref="A3:J27"/>
+  <dimension ref="A3:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1168,50 +1433,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10">
-      <c r="A3" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="A3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="44">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -1220,7 +1485,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>7</v>
@@ -1231,201 +1496,201 @@
       <c r="I6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="31">
         <v>2049</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>48</v>
+      <c r="I7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="30">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="31">
         <v>2049</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>49</v>
+      <c r="I8" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="31">
         <v>2049</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>51</v>
+      <c r="I9" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="31">
         <v>2049</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="36">
-      <c r="A11" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
+      <c r="I10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="72">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2049</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="72">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="22">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>9</v>
+      <c r="E12" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="F12" s="9">
         <v>2049</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>46</v>
+        <v>81</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="22">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
+      <c r="J12" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36">
+      <c r="A13" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="9">
-        <v>2049</v>
+        <v>17</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>46</v>
@@ -1433,21 +1698,21 @@
       <c r="I13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>60</v>
+      <c r="J13" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="22">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F14" s="9">
         <v>2049</v>
@@ -1461,284 +1726,284 @@
       <c r="I14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
+      <c r="J14" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2049</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="22">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2049</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="38" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="9">
-        <v>4097</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="49" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="38" customHeight="1">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="9">
+        <v>4097</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="49" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="9">
+        <v>4097</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="9">
-        <v>4097</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="22">
-      <c r="A18" s="20" t="s">
+    </row>
+    <row r="20" spans="1:10" ht="22">
+      <c r="A20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="9">
-        <v>4096</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="54">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="9">
-        <v>4096</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="36">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="6" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>75</v>
+      <c r="E20" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="F20" s="9">
         <v>4096</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>46</v>
+      <c r="H20" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="36">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
+      <c r="J20" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="54">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="F21" s="9">
-        <v>16384</v>
-      </c>
-      <c r="G21" s="16" t="s">
+        <v>4096</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>46</v>
+      <c r="H21" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="36">
-      <c r="A22" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="21"/>
+      <c r="J21" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="108">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>78</v>
+      <c r="E22" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="F22" s="9">
-        <v>8192</v>
-      </c>
-      <c r="G22" s="16" t="s">
+        <v>4096</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>46</v>
+      <c r="H22" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="15" t="s">
-        <v>42</v>
+      <c r="J22" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>78</v>
+        <v>60</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="F23" s="9">
-        <v>8192</v>
-      </c>
-      <c r="G23" s="16" t="s">
+        <v>16384</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>46</v>
+      <c r="H23" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>77</v>
+      <c r="J23" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="20"/>
       <c r="C24" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>78</v>
+      <c r="E24" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="F24" s="9">
         <v>8192</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -1747,26 +2012,26 @@
       <c r="I24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>29</v>
+      <c r="J24" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="6" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>79</v>
+        <v>60</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="F25" s="9">
-        <v>32768</v>
-      </c>
-      <c r="G25" s="16" t="s">
+        <v>8192</v>
+      </c>
+      <c r="G25" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="7" t="s">
@@ -1775,26 +2040,26 @@
       <c r="I25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="17" t="s">
-        <v>71</v>
+      <c r="J25" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="F26" s="9">
-        <v>32768</v>
-      </c>
-      <c r="G26" s="16" t="s">
+        <v>8192</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -1803,26 +2068,26 @@
       <c r="I26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>77</v>
+      <c r="J26" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="5" t="s">
-        <v>43</v>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>79</v>
+      <c r="E27" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="F27" s="9">
         <v>32768</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -1831,26 +2096,81 @@
       <c r="I27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="36">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="9">
+        <v>32768</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="14" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="36">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="9">
+        <v>32768</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A18:B21"/>
-    <mergeCell ref="A22:B27"/>
+    <mergeCell ref="A20:B23"/>
+    <mergeCell ref="A24:B29"/>
     <mergeCell ref="A3:J5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A7:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A22:B27" r:id="rId1" display="GPT-4" xr:uid="{19424712-485B-6540-8010-E639FF90D32C}"/>
-    <hyperlink ref="A11:A17" r:id="rId2" display="InstructGPT" xr:uid="{941D5FD8-991A-8146-9A00-46DC66121084}"/>
-    <hyperlink ref="A7:B10" r:id="rId3" display="GPT-3" xr:uid="{31BB80FA-2BC6-AB4C-A5F5-BFCA350F85C4}"/>
+    <hyperlink ref="A24:B29" r:id="rId1" display="GPT-4" xr:uid="{19424712-485B-6540-8010-E639FF90D32C}"/>
+    <hyperlink ref="A13:A19" r:id="rId2" display="InstructGPT" xr:uid="{941D5FD8-991A-8146-9A00-46DC66121084}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
